--- a/biology/Zoologie/Diguetia_albolineata/Diguetia_albolineata.xlsx
+++ b/biology/Zoologie/Diguetia_albolineata/Diguetia_albolineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diguetia albolineata est une espèce d'araignées aranéomorphes de la famille des Diguetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diguetia albolineata est une espèce d'araignées aranéomorphes de la famille des Diguetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas, en Arizona et en Californie et au Mexique au Guerrero, dans l'État de Mexico, au Puebla, au Tamaulipas et au Sonora[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas, en Arizona et en Californie et au Mexique au Guerrero, dans l'État de Mexico, au Puebla, au Tamaulipas et au Sonora,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Gertsch en 1958 mesure 5,1 mm et la femelle 6,3 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Gertsch en 1958 mesure 5,1 mm et la femelle 6,3 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ervig albolineatus par O. Pickard-Cambridge en 1895. Elle est placée dans le genre Diguetia par Simon en 1898[4].
-Diguetia caudata[5] a été placée en synonymie par Gertsch en 1958[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ervig albolineatus par O. Pickard-Cambridge en 1895. Elle est placée dans le genre Diguetia par Simon en 1898.
+Diguetia caudata a été placée en synonymie par Gertsch en 1958.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1895 : « Arachnida. Araneida. » Biologia Centrali-Americana, Zoology, vol. 1, p. 145-160 (texte intégral).</t>
         </is>
